--- a/instances/dae_test.xlsx
+++ b/instances/dae_test.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://seunic-my.sharepoint.cn/personal/230208781_seu_edu_cn/Documents/科研/Solverz/instances/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/caf4ccef320e202d/★★★科研/Solverz/Solverz/instances/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_AD4DA82427541F7ACA7EB8A9580A294E6AE8DE12" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12C6CCCD-2C18-4FA6-93AC-105A9EA9D96A}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="11_AD4DA82427541F7ACA7EB8A9580A294E6AE8DE12" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6591D0CA-23BE-4D59-9488-78575375B1B5}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="trapezoidal" sheetId="1" r:id="rId1"/>
+    <sheet name="rodas" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,6 +23,19 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -344,1619 +358,1627 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B201"/>
+  <dimension ref="A1:B202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="E173" sqref="E173"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1">
-        <v>1</v>
-      </c>
-      <c r="B1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>0.95856247269944805</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>1.03978971616843</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>0.93007084966678599</v>
+        <v>0.95856247269944805</v>
       </c>
       <c r="B3">
-        <v>1.06534557046518</v>
+        <v>1.03978971616843</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>0.910069936889219</v>
+        <v>0.93007084966678599</v>
       </c>
       <c r="B4">
-        <v>1.08248461743394</v>
+        <v>1.06534557046518</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>0.89582867530322496</v>
+        <v>0.910069936889219</v>
       </c>
       <c r="B5">
-        <v>1.0942973066545101</v>
+        <v>1.08248461743394</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>0.88561177945919101</v>
+        <v>0.89582867530322496</v>
       </c>
       <c r="B6">
-        <v>1.10258547208185</v>
+        <v>1.0942973066545101</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>0.87820474047824904</v>
+        <v>0.88561177945919101</v>
       </c>
       <c r="B7">
-        <v>1.10849623519506</v>
+        <v>1.10258547208185</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>0.87282073872168198</v>
+        <v>0.87820474047824904</v>
       </c>
       <c r="B8">
-        <v>1.1127390578026199</v>
+        <v>1.10849623519506</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>0.86890367384668699</v>
+        <v>0.87282073872168198</v>
       </c>
       <c r="B9">
-        <v>1.11579894760396</v>
+        <v>1.1127390578026199</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>0.866044240513695</v>
+        <v>0.86890367384668699</v>
       </c>
       <c r="B10">
-        <v>1.11802226707746</v>
+        <v>1.11579894760396</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>0.86394456355319404</v>
+        <v>0.866044240513695</v>
       </c>
       <c r="B11">
-        <v>1.1196465859731899</v>
+        <v>1.11802226707746</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>0.86239819882488999</v>
+        <v>0.86394456355319404</v>
       </c>
       <c r="B12">
-        <v>1.12083747712307</v>
+        <v>1.1196465859731899</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>0.86126162009198204</v>
+        <v>0.86239819882488999</v>
       </c>
       <c r="B13">
-        <v>1.12171002729001</v>
+        <v>1.12083747712307</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>0.86042429064030101</v>
+        <v>0.86126162009198204</v>
       </c>
       <c r="B14">
-        <v>1.1223516658072299</v>
+        <v>1.12171002729001</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>0.85981799215927801</v>
+        <v>0.86042429064030101</v>
       </c>
       <c r="B15">
-        <v>1.12281574560479</v>
+        <v>1.1223516658072299</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>0.85936935076777499</v>
+        <v>0.85981799215927801</v>
       </c>
       <c r="B16">
-        <v>1.1231599374363499</v>
+        <v>1.12281574560479</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>0.85904633616872905</v>
+        <v>0.85936935076777499</v>
       </c>
       <c r="B17">
-        <v>1.12340747492948</v>
+        <v>1.1231599374363499</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>0.85879714002885699</v>
+        <v>0.85904633616872905</v>
       </c>
       <c r="B18">
-        <v>1.1235982344514901</v>
+        <v>1.12340747492948</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>0.85861780259644604</v>
+        <v>0.85879714002885699</v>
       </c>
       <c r="B19">
-        <v>1.1237351096502901</v>
+        <v>1.1235982344514901</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>0.85847797997712905</v>
+        <v>0.85861780259644604</v>
       </c>
       <c r="B20">
-        <v>1.12384141146554</v>
+        <v>1.1237351096502901</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>0.85837681672090105</v>
+        <v>0.85847797997712905</v>
       </c>
       <c r="B21">
-        <v>1.1239181981208599</v>
+        <v>1.12384141146554</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>0.85830046105445701</v>
+        <v>0.85837681672090105</v>
       </c>
       <c r="B22">
-        <v>1.1239760877359299</v>
+        <v>1.1239181981208599</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>0.85824517588416604</v>
+        <v>0.85830046105445701</v>
       </c>
       <c r="B23">
-        <v>1.1240180011221399</v>
+        <v>1.1239760877359299</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>0.85820863205651499</v>
+        <v>0.85824517588416604</v>
       </c>
       <c r="B24">
-        <v>1.12404566413459</v>
+        <v>1.1240180011221399</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>0.85818415737172005</v>
+        <v>0.85820863205651499</v>
       </c>
       <c r="B25">
-        <v>1.12406424676938</v>
+        <v>1.12404566413459</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>0.85816395556021796</v>
+        <v>0.85818415737172005</v>
       </c>
       <c r="B26">
-        <v>1.12407980383693</v>
+        <v>1.12406424676938</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>0.85814835084983399</v>
+        <v>0.85816395556021796</v>
       </c>
       <c r="B27">
-        <v>1.1240919426915299</v>
+        <v>1.12407980383693</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>0.85813995085175299</v>
+        <v>0.85814835084983399</v>
       </c>
       <c r="B28">
-        <v>1.12409845440792</v>
+        <v>1.1240919426915299</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>0.85813114005046598</v>
+        <v>0.85813995085175299</v>
       </c>
       <c r="B29">
-        <v>1.1241052618778999</v>
+        <v>1.12409845440792</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>0.85812050314656096</v>
+        <v>0.85813114005046598</v>
       </c>
       <c r="B30">
-        <v>1.1241134237290999</v>
+        <v>1.1241052618778999</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>0.85811531795002205</v>
+        <v>0.85812050314656096</v>
       </c>
       <c r="B31">
-        <v>1.12411738704399</v>
+        <v>1.1241134237290999</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>0.85811013277405401</v>
+        <v>0.85811531795002205</v>
       </c>
       <c r="B32">
-        <v>1.12412128032498</v>
+        <v>1.12411738704399</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>0.858103922355125</v>
+        <v>0.85811013277405401</v>
       </c>
       <c r="B33">
-        <v>1.1241258655578501</v>
+        <v>1.12412128032498</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>0.85810007852354298</v>
+        <v>0.858103922355125</v>
       </c>
       <c r="B34">
-        <v>1.1241286812251401</v>
+        <v>1.1241258655578501</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>0.85809723146928896</v>
+        <v>0.85810007852354298</v>
       </c>
       <c r="B35">
-        <v>1.1241307407555099</v>
+        <v>1.1241286812251401</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>0.85809502214218603</v>
+        <v>0.85809723146928896</v>
       </c>
       <c r="B36">
-        <v>1.1241323199461</v>
+        <v>1.1241307407555099</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>0.85809349985250505</v>
+        <v>0.85809502214218603</v>
       </c>
       <c r="B37">
-        <v>1.1241333461456</v>
+        <v>1.1241323199461</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>0.858092660549297</v>
+        <v>0.85809349985250505</v>
       </c>
       <c r="B38">
-        <v>1.12413380194557</v>
+        <v>1.1241333461456</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>0.85809238280894695</v>
+        <v>0.858092660549297</v>
       </c>
       <c r="B39">
-        <v>1.12413379144896</v>
+        <v>1.12413380194557</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>0.85809169293957799</v>
+        <v>0.85809238280894695</v>
       </c>
       <c r="B40">
-        <v>1.1241341622908601</v>
+        <v>1.12413379144896</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>0.85808965091027301</v>
+        <v>0.85809169293957799</v>
       </c>
       <c r="B41">
-        <v>1.1241357601534601</v>
+        <v>1.1241341622908601</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>0.85808791105673299</v>
+        <v>0.85808965091027301</v>
       </c>
       <c r="B42">
-        <v>1.1241371345888</v>
+        <v>1.1241357601534601</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>0.85808647337895805</v>
+        <v>0.85808791105673299</v>
       </c>
       <c r="B43">
-        <v>1.12413828559689</v>
+        <v>1.1241371345888</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>0.85808533787694696</v>
+        <v>0.85808647337895805</v>
       </c>
       <c r="B44">
-        <v>1.1241392131777199</v>
+        <v>1.12413828559689</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>0.85808450455070095</v>
+        <v>0.85808533787694696</v>
       </c>
       <c r="B45">
-        <v>1.12413991733129</v>
+        <v>1.1241392131777199</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>0.85808397340022002</v>
+        <v>0.85808450455070095</v>
       </c>
       <c r="B46">
-        <v>1.1241403980576099</v>
+        <v>1.12413991733129</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>0.85808374442550395</v>
+        <v>0.85808397340022002</v>
       </c>
       <c r="B47">
-        <v>1.12414065535667</v>
+        <v>1.1241403980576099</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>0.85808381762655295</v>
+        <v>0.85808374442550395</v>
       </c>
       <c r="B48">
-        <v>1.12414068922848</v>
+        <v>1.12414065535667</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>0.85808419300336602</v>
+        <v>0.85808381762655295</v>
       </c>
       <c r="B49">
-        <v>1.12414049967303</v>
+        <v>1.12414068922848</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>0.85808487055594396</v>
+        <v>0.85808419300336602</v>
       </c>
       <c r="B50">
-        <v>1.12414008669032</v>
+        <v>1.12414049967303</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>0.85808585028428797</v>
+        <v>0.85808487055594396</v>
       </c>
       <c r="B51">
-        <v>1.1241394502803601</v>
+        <v>1.12414008669032</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>0.85808713218839605</v>
+        <v>0.85808585028428797</v>
       </c>
       <c r="B52">
-        <v>1.12413859044314</v>
+        <v>1.1241394502803601</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>0.85808871626826799</v>
+        <v>0.85808713218839605</v>
       </c>
       <c r="B53">
-        <v>1.1241375071786599</v>
+        <v>1.12413859044314</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>0.85809060252390601</v>
+        <v>0.85808871626826799</v>
       </c>
       <c r="B54">
-        <v>1.12413620048693</v>
+        <v>1.1241375071786599</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>0.85809279095530799</v>
+        <v>0.85809060252390601</v>
       </c>
       <c r="B55">
-        <v>1.12413467036794</v>
+        <v>1.12413620048693</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>0.85809373521443599</v>
+        <v>0.85809279095530799</v>
       </c>
       <c r="B56">
-        <v>1.1241340266461901</v>
+        <v>1.12413467036794</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>0.85809395041635295</v>
+        <v>0.85809373521443599</v>
       </c>
       <c r="B57">
-        <v>1.12413389962011</v>
+        <v>1.1241340266461901</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>0.85809418154217998</v>
+        <v>0.85809395041635295</v>
       </c>
       <c r="B58">
-        <v>1.1241337546116701</v>
+        <v>1.12413389962011</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>0.85809442859191998</v>
+        <v>0.85809418154217998</v>
       </c>
       <c r="B59">
-        <v>1.1241335916208699</v>
+        <v>1.1241337546116701</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>0.85809469156557105</v>
+        <v>0.85809442859191998</v>
       </c>
       <c r="B60">
-        <v>1.1241334106477101</v>
+        <v>1.1241335916208699</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>0.85809497046313299</v>
+        <v>0.85809469156557105</v>
       </c>
       <c r="B61">
-        <v>1.1241332116922</v>
+        <v>1.1241334106477101</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>0.858095265284607</v>
+        <v>0.85809497046313299</v>
       </c>
       <c r="B62">
-        <v>1.1241329947543399</v>
+        <v>1.1241332116922</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>0.85809557602999298</v>
+        <v>0.858095265284607</v>
       </c>
       <c r="B63">
-        <v>1.12413275983412</v>
+        <v>1.1241329947543399</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>0.85809590269929004</v>
+        <v>0.85809557602999298</v>
       </c>
       <c r="B64">
-        <v>1.12413250693154</v>
+        <v>1.12413275983412</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>0.85809624529249795</v>
+        <v>0.85809590269929004</v>
       </c>
       <c r="B65">
-        <v>1.1241322360466099</v>
+        <v>1.12413250693154</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>0.85809660380961905</v>
+        <v>0.85809624529249795</v>
       </c>
       <c r="B66">
-        <v>1.1241319471793201</v>
+        <v>1.1241322360466099</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>0.85809697825065101</v>
+        <v>0.85809660380961905</v>
       </c>
       <c r="B67">
-        <v>1.1241316403296799</v>
+        <v>1.1241319471793201</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>0.85809736861559405</v>
+        <v>0.85809697825065101</v>
       </c>
       <c r="B68">
-        <v>1.12413131549768</v>
+        <v>1.1241316403296799</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>0.85809777490444905</v>
+        <v>0.85809736861559405</v>
       </c>
       <c r="B69">
-        <v>1.12413097268332</v>
+        <v>1.12413131549768</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>0.85809819711721502</v>
+        <v>0.85809777490444905</v>
       </c>
       <c r="B70">
-        <v>1.1241306118866099</v>
+        <v>1.12413097268332</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>0.85809863525389296</v>
+        <v>0.85809819711721502</v>
       </c>
       <c r="B71">
-        <v>1.12413023310755</v>
+        <v>1.1241306118866099</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>0.85809877883894203</v>
+        <v>0.85809863525389296</v>
       </c>
       <c r="B72">
-        <v>1.1241301672109201</v>
+        <v>1.12413023310755</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>0.85809889209357704</v>
+        <v>0.85809877883894203</v>
       </c>
       <c r="B73">
-        <v>1.12413013262384</v>
+        <v>1.1241301672109201</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>0.85809898298467302</v>
+        <v>0.85809889209357704</v>
       </c>
       <c r="B74">
-        <v>1.12413012085623</v>
+        <v>1.12413013262384</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>0.85809905151222798</v>
+        <v>0.85809898298467302</v>
       </c>
       <c r="B75">
-        <v>1.1241301319081001</v>
+        <v>1.12413012085623</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>0.85809909767624304</v>
+        <v>0.85809905151222798</v>
       </c>
       <c r="B76">
-        <v>1.12413016577944</v>
+        <v>1.1241301319081001</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>0.85809912147671896</v>
+        <v>0.85809909767624304</v>
       </c>
       <c r="B77">
-        <v>1.1241302224702501</v>
+        <v>1.12413016577944</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>0.85809912291365398</v>
+        <v>0.85809912147671896</v>
       </c>
       <c r="B78">
-        <v>1.12413030198054</v>
+        <v>1.1241302224702501</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>0.85809910198704797</v>
+        <v>0.85809912291365398</v>
       </c>
       <c r="B79">
-        <v>1.1241304043103</v>
+        <v>1.12413030198054</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>0.85809905869690295</v>
+        <v>0.85809910198704797</v>
       </c>
       <c r="B80">
-        <v>1.1241305294595401</v>
+        <v>1.1241304043103</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>0.85809899304321802</v>
+        <v>0.85809905869690295</v>
       </c>
       <c r="B81">
-        <v>1.12413067742825</v>
+        <v>1.1241305294595401</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>0.85809890502599295</v>
+        <v>0.85809899304321802</v>
       </c>
       <c r="B82">
-        <v>1.1241308482164301</v>
+        <v>1.12413067742825</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>0.85809879464522698</v>
+        <v>0.85809890502599295</v>
       </c>
       <c r="B83">
-        <v>1.12413104182408</v>
+        <v>1.1241308482164301</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>0.85809866190092099</v>
+        <v>0.85809879464522698</v>
       </c>
       <c r="B84">
-        <v>1.12413125825121</v>
+        <v>1.12413104182408</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>0.85809850679307598</v>
+        <v>0.85809866190092099</v>
       </c>
       <c r="B85">
-        <v>1.12413149749782</v>
+        <v>1.12413125825121</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>0.85809832932168995</v>
+        <v>0.85809850679307598</v>
       </c>
       <c r="B86">
-        <v>1.12413175956389</v>
+        <v>1.12413149749782</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>0.85809815149162405</v>
+        <v>0.85809832932168995</v>
       </c>
       <c r="B87">
-        <v>1.1241319692252101</v>
+        <v>1.12413175956389</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>0.85809801243229999</v>
+        <v>0.85809815149162405</v>
       </c>
       <c r="B88">
-        <v>1.1241319927167199</v>
+        <v>1.1241319692252101</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>0.85809786064350102</v>
+        <v>0.85809801243229999</v>
       </c>
       <c r="B89">
-        <v>1.1241320060933799</v>
+        <v>1.1241319927167199</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>0.85809769612522802</v>
+        <v>0.85809786064350102</v>
       </c>
       <c r="B90">
-        <v>1.1241320093551901</v>
+        <v>1.1241320060933799</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>0.85809751887747898</v>
+        <v>0.85809769612522802</v>
       </c>
       <c r="B91">
-        <v>1.12413200250214</v>
+        <v>1.1241320093551901</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>0.85809732890025603</v>
+        <v>0.85809751887747898</v>
       </c>
       <c r="B92">
-        <v>1.12413198553425</v>
+        <v>1.12413200250214</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>0.85809712619355805</v>
+        <v>0.85809732890025603</v>
       </c>
       <c r="B93">
-        <v>1.1241319584514999</v>
+        <v>1.12413198553425</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>0.85809691075738503</v>
+        <v>0.85809712619355805</v>
       </c>
       <c r="B94">
-        <v>1.12413192125391</v>
+        <v>1.1241319584514999</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>0.85809668259173699</v>
+        <v>0.85809691075738503</v>
       </c>
       <c r="B95">
-        <v>1.1241318739414601</v>
+        <v>1.12413192125391</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>0.85809644169661403</v>
+        <v>0.85809668259173699</v>
       </c>
       <c r="B96">
-        <v>1.1241318165141601</v>
+        <v>1.1241318739414601</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>0.85809618807201704</v>
+        <v>0.85809644169661403</v>
       </c>
       <c r="B97">
-        <v>1.12413174897201</v>
+        <v>1.1241318165141601</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>0.85809592171794402</v>
+        <v>0.85809618807201704</v>
       </c>
       <c r="B98">
-        <v>1.124131671315</v>
+        <v>1.12413174897201</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>0.85809564263439697</v>
+        <v>0.85809592171794402</v>
       </c>
       <c r="B99">
-        <v>1.12413158354315</v>
+        <v>1.124131671315</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>0.858095350821375</v>
+        <v>0.85809564263439697</v>
       </c>
       <c r="B100">
-        <v>1.1241314856564399</v>
+        <v>1.12413158354315</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>0.858095046278878</v>
+        <v>0.858095350821375</v>
       </c>
       <c r="B101">
-        <v>1.12413137765489</v>
+        <v>1.1241314856564399</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>0.85809472900690698</v>
+        <v>0.858095046278878</v>
       </c>
       <c r="B102">
-        <v>1.12413125953848</v>
+        <v>1.12413137765489</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>0.85809458262212301</v>
+        <v>0.85809472900690698</v>
       </c>
       <c r="B103">
-        <v>1.12413125230249</v>
+        <v>1.12413125953848</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>0.85809455683962099</v>
+        <v>0.85809458262212301</v>
       </c>
       <c r="B104">
-        <v>1.1241313241914901</v>
+        <v>1.12413125230249</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>0.85809453105711897</v>
+        <v>0.85809455683962099</v>
       </c>
       <c r="B105">
-        <v>1.12413139608048</v>
+        <v>1.1241313241914901</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>0.85809450527461795</v>
+        <v>0.85809453105711897</v>
       </c>
       <c r="B106">
-        <v>1.12413146796948</v>
+        <v>1.12413139608048</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>0.85809447949211604</v>
+        <v>0.85809450527461795</v>
       </c>
       <c r="B107">
-        <v>1.1241315398584699</v>
+        <v>1.12413146796948</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>0.85809445370961501</v>
+        <v>0.85809447949211604</v>
       </c>
       <c r="B108">
-        <v>1.12413161174746</v>
+        <v>1.1241315398584699</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>0.85809442792711299</v>
+        <v>0.85809445370961501</v>
       </c>
       <c r="B109">
-        <v>1.1241316836364601</v>
+        <v>1.12413161174746</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>0.85809440214461097</v>
+        <v>0.85809442792711299</v>
       </c>
       <c r="B110">
-        <v>1.12413175552545</v>
+        <v>1.1241316836364601</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>0.85809437636210995</v>
+        <v>0.85809440214461097</v>
       </c>
       <c r="B111">
-        <v>1.1241318274144501</v>
+        <v>1.12413175552545</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>0.85809435057960803</v>
+        <v>0.85809437636210995</v>
       </c>
       <c r="B112">
-        <v>1.1241318993034399</v>
+        <v>1.1241318274144501</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>0.85809432479710701</v>
+        <v>0.85809435057960803</v>
       </c>
       <c r="B113">
-        <v>1.12413197119244</v>
+        <v>1.1241318993034399</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114">
-        <v>0.85809429901460499</v>
+        <v>0.85809432479710701</v>
       </c>
       <c r="B114">
-        <v>1.1241320430814301</v>
+        <v>1.12413197119244</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>0.85809427323210297</v>
+        <v>0.85809429901460499</v>
       </c>
       <c r="B115">
-        <v>1.12413211497043</v>
+        <v>1.1241320430814301</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>0.85809424744960205</v>
+        <v>0.85809427323210297</v>
       </c>
       <c r="B116">
-        <v>1.1241321868594201</v>
+        <v>1.12413211497043</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117">
-        <v>0.85809422166710003</v>
+        <v>0.85809424744960205</v>
       </c>
       <c r="B117">
-        <v>1.1241322587484199</v>
+        <v>1.1241321868594201</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>0.85809419588459901</v>
+        <v>0.85809422166710003</v>
       </c>
       <c r="B118">
-        <v>1.12413233063741</v>
+        <v>1.1241322587484199</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119">
-        <v>0.85809417010209699</v>
+        <v>0.85809419588459901</v>
       </c>
       <c r="B119">
-        <v>1.1241324025264099</v>
+        <v>1.12413233063741</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120">
-        <v>0.85809414431959496</v>
+        <v>0.85809417010209699</v>
       </c>
       <c r="B120">
-        <v>1.1241324744154</v>
+        <v>1.1241324025264099</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121">
-        <v>0.85809411853709405</v>
+        <v>0.85809414431959496</v>
       </c>
       <c r="B121">
-        <v>1.1241325463044001</v>
+        <v>1.1241324744154</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122">
-        <v>0.85809409275459203</v>
+        <v>0.85809411853709405</v>
       </c>
       <c r="B122">
-        <v>1.1241326181933899</v>
+        <v>1.1241325463044001</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123">
-        <v>0.85809408389679998</v>
+        <v>0.85809409275459203</v>
       </c>
       <c r="B123">
-        <v>1.12413264308118</v>
+        <v>1.1241326181933899</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124">
-        <v>0.85809408639094298</v>
+        <v>0.85809408389679998</v>
       </c>
       <c r="B124">
-        <v>1.12413263644379</v>
+        <v>1.12413264308118</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125">
-        <v>0.85809408888508598</v>
+        <v>0.85809408639094298</v>
       </c>
       <c r="B125">
-        <v>1.1241326298064001</v>
+        <v>1.12413263644379</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126">
-        <v>0.85809409137922799</v>
+        <v>0.85809408888508598</v>
       </c>
       <c r="B126">
-        <v>1.1241326231690101</v>
+        <v>1.1241326298064001</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127">
-        <v>0.85809409387337099</v>
+        <v>0.85809409137922799</v>
       </c>
       <c r="B127">
-        <v>1.1241326165316201</v>
+        <v>1.1241326231690101</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128">
-        <v>0.85809409636751399</v>
+        <v>0.85809409387337099</v>
       </c>
       <c r="B128">
-        <v>1.1241326098942299</v>
+        <v>1.1241326165316201</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129">
-        <v>0.858094098861656</v>
+        <v>0.85809409636751399</v>
       </c>
       <c r="B129">
-        <v>1.1241326032568399</v>
+        <v>1.1241326098942299</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130">
-        <v>0.858094101355799</v>
+        <v>0.858094098861656</v>
       </c>
       <c r="B130">
-        <v>1.12413259661945</v>
+        <v>1.1241326032568399</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131">
-        <v>0.858094103849942</v>
+        <v>0.858094101355799</v>
       </c>
       <c r="B131">
-        <v>1.12413258998206</v>
+        <v>1.12413259661945</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132">
-        <v>0.85809410634408501</v>
+        <v>0.858094103849942</v>
       </c>
       <c r="B132">
-        <v>1.12413258334467</v>
+        <v>1.12413258998206</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133">
-        <v>0.85809410883822701</v>
+        <v>0.85809410634408501</v>
       </c>
       <c r="B133">
-        <v>1.1241325767072801</v>
+        <v>1.12413258334467</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134">
-        <v>0.85809411133237001</v>
+        <v>0.85809410883822701</v>
       </c>
       <c r="B134">
-        <v>1.1241325700698901</v>
+        <v>1.1241325767072801</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135">
-        <v>0.85809411382651302</v>
+        <v>0.85809411133237001</v>
       </c>
       <c r="B135">
-        <v>1.1241325634324999</v>
+        <v>1.1241325700698901</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136">
-        <v>0.85809411632065502</v>
+        <v>0.85809411382651302</v>
       </c>
       <c r="B136">
-        <v>1.1241325567951099</v>
+        <v>1.1241325634324999</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137">
-        <v>0.85809411881479802</v>
+        <v>0.85809411632065502</v>
       </c>
       <c r="B137">
-        <v>1.12413255015772</v>
+        <v>1.1241325567951099</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138">
-        <v>0.85809412130894103</v>
+        <v>0.85809411881479802</v>
       </c>
       <c r="B138">
-        <v>1.12413254352033</v>
+        <v>1.12413255015772</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139">
-        <v>0.85809412380308403</v>
+        <v>0.85809412130894103</v>
       </c>
       <c r="B139">
-        <v>1.12413253688293</v>
+        <v>1.12413254352033</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140">
-        <v>0.85809412629722603</v>
+        <v>0.85809412380308403</v>
       </c>
       <c r="B140">
-        <v>1.1241325302455401</v>
+        <v>1.12413253688293</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141">
-        <v>0.85809412879136904</v>
+        <v>0.85809412629722603</v>
       </c>
       <c r="B141">
-        <v>1.1241325236081501</v>
+        <v>1.1241325302455401</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142">
-        <v>0.85809413128551204</v>
+        <v>0.85809412879136904</v>
       </c>
       <c r="B142">
-        <v>1.1241325169707601</v>
+        <v>1.1241325236081501</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143">
-        <v>0.85809413656168199</v>
+        <v>0.85809413128551204</v>
       </c>
       <c r="B143">
-        <v>1.1241325189723701</v>
+        <v>1.1241325169707601</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144">
-        <v>0.85809414370384496</v>
+        <v>0.85809413656168199</v>
       </c>
       <c r="B144">
-        <v>1.1241325267684299</v>
+        <v>1.1241325189723701</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145">
-        <v>0.85809415084600804</v>
+        <v>0.85809414370384496</v>
       </c>
       <c r="B145">
-        <v>1.1241325345644799</v>
+        <v>1.1241325267684299</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146">
-        <v>0.85809415798817101</v>
+        <v>0.85809415084600804</v>
       </c>
       <c r="B146">
-        <v>1.12413254236053</v>
+        <v>1.1241325345644799</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147">
-        <v>0.85809416513033498</v>
+        <v>0.85809415798817101</v>
       </c>
       <c r="B147">
-        <v>1.12413255015659</v>
+        <v>1.12413254236053</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148">
-        <v>0.85809417227249796</v>
+        <v>0.85809416513033498</v>
       </c>
       <c r="B148">
-        <v>1.12413255795264</v>
+        <v>1.12413255015659</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149">
-        <v>0.85809417941466104</v>
+        <v>0.85809417227249796</v>
       </c>
       <c r="B149">
-        <v>1.1241325657487</v>
+        <v>1.12413255795264</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150">
-        <v>0.85809418655682401</v>
+        <v>0.85809417941466104</v>
       </c>
       <c r="B150">
-        <v>1.12413257354475</v>
+        <v>1.1241325657487</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151">
-        <v>0.85809419369898698</v>
+        <v>0.85809418655682401</v>
       </c>
       <c r="B151">
-        <v>1.1241325813408101</v>
+        <v>1.12413257354475</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152">
-        <v>0.85809420084115096</v>
+        <v>0.85809419369898698</v>
       </c>
       <c r="B152">
-        <v>1.1241325891368601</v>
+        <v>1.1241325813408101</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153">
-        <v>0.85809420798331404</v>
+        <v>0.85809420084115096</v>
       </c>
       <c r="B153">
-        <v>1.1241325969329199</v>
+        <v>1.1241325891368601</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154">
-        <v>0.85809421512547701</v>
+        <v>0.85809420798331404</v>
       </c>
       <c r="B154">
-        <v>1.1241326047289699</v>
+        <v>1.1241325969329199</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155">
-        <v>0.85809422226763998</v>
+        <v>0.85809421512547701</v>
       </c>
       <c r="B155">
-        <v>1.1241326125250299</v>
+        <v>1.1241326047289699</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156">
-        <v>0.85809422940980395</v>
+        <v>0.85809422226763998</v>
       </c>
       <c r="B156">
-        <v>1.12413262032108</v>
+        <v>1.1241326125250299</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157">
-        <v>0.85809423655196704</v>
+        <v>0.85809422940980395</v>
       </c>
       <c r="B157">
-        <v>1.12413262811713</v>
+        <v>1.12413262032108</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158">
-        <v>0.85809424369413001</v>
+        <v>0.85809423655196704</v>
       </c>
       <c r="B158">
-        <v>1.12413263591319</v>
+        <v>1.12413262811713</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159">
-        <v>0.85809425083629298</v>
+        <v>0.85809424369413001</v>
       </c>
       <c r="B159">
-        <v>1.12413264370924</v>
+        <v>1.12413263591319</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160">
-        <v>0.85809425797845595</v>
+        <v>0.85809425083629298</v>
       </c>
       <c r="B160">
-        <v>1.1241326515053001</v>
+        <v>1.12413264370924</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161">
-        <v>0.85809426512062004</v>
+        <v>0.85809425797845595</v>
       </c>
       <c r="B161">
-        <v>1.1241326593013501</v>
+        <v>1.1241326515053001</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162">
-        <v>0.85809427226278301</v>
+        <v>0.85809426512062004</v>
       </c>
       <c r="B162">
-        <v>1.1241326670974101</v>
+        <v>1.1241326593013501</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163">
-        <v>0.85809427717118003</v>
+        <v>0.85809427226278301</v>
       </c>
       <c r="B163">
-        <v>1.1241326675359</v>
+        <v>1.1241326670974101</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164">
-        <v>0.85809428058131998</v>
+        <v>0.85809427717118003</v>
       </c>
       <c r="B164">
-        <v>1.1241326630394499</v>
+        <v>1.1241326675359</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165">
-        <v>0.85809428399146004</v>
+        <v>0.85809428058131998</v>
       </c>
       <c r="B165">
-        <v>1.124132658543</v>
+        <v>1.1241326630394499</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166">
-        <v>0.85809428740159999</v>
+        <v>0.85809428399146004</v>
       </c>
       <c r="B166">
-        <v>1.1241326540465499</v>
+        <v>1.124132658543</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167">
-        <v>0.85809429081174005</v>
+        <v>0.85809428740159999</v>
       </c>
       <c r="B167">
-        <v>1.1241326495501001</v>
+        <v>1.1241326540465499</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168">
-        <v>0.85809429422187999</v>
+        <v>0.85809429081174005</v>
       </c>
       <c r="B168">
-        <v>1.12413264505365</v>
+        <v>1.1241326495501001</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169">
-        <v>0.85809429763202005</v>
+        <v>0.85809429422187999</v>
       </c>
       <c r="B169">
-        <v>1.1241326405571901</v>
+        <v>1.12413264505365</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170">
-        <v>0.85809430104216</v>
+        <v>0.85809429763202005</v>
       </c>
       <c r="B170">
-        <v>1.12413263606074</v>
+        <v>1.1241326405571901</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171">
-        <v>0.85809430445229995</v>
+        <v>0.85809430104216</v>
       </c>
       <c r="B171">
-        <v>1.1241326315642901</v>
+        <v>1.12413263606074</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172">
-        <v>0.85809430786244001</v>
+        <v>0.85809430445229995</v>
       </c>
       <c r="B172">
-        <v>1.12413262706784</v>
+        <v>1.1241326315642901</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173">
-        <v>0.85809431127257996</v>
+        <v>0.85809430786244001</v>
       </c>
       <c r="B173">
-        <v>1.1241326225713899</v>
+        <v>1.12413262706784</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174">
-        <v>0.85809431468272002</v>
+        <v>0.85809431127257996</v>
       </c>
       <c r="B174">
-        <v>1.12413261807494</v>
+        <v>1.1241326225713899</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175">
-        <v>0.85809431809285996</v>
+        <v>0.85809431468272002</v>
       </c>
       <c r="B175">
-        <v>1.1241326135784799</v>
+        <v>1.12413261807494</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176">
-        <v>0.85809432150300002</v>
+        <v>0.85809431809285996</v>
       </c>
       <c r="B176">
-        <v>1.1241326090820301</v>
+        <v>1.1241326135784799</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177">
-        <v>0.85809432491313997</v>
+        <v>0.85809432150300002</v>
       </c>
       <c r="B177">
-        <v>1.12413260458558</v>
+        <v>1.1241326090820301</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178">
-        <v>0.85809432832328003</v>
+        <v>0.85809432491313997</v>
       </c>
       <c r="B178">
-        <v>1.1241326000891301</v>
+        <v>1.12413260458558</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179">
-        <v>0.85809433173341998</v>
+        <v>0.85809432832328003</v>
       </c>
       <c r="B179">
-        <v>1.12413259559268</v>
+        <v>1.1241326000891301</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180">
-        <v>0.85809433514356004</v>
+        <v>0.85809433173341998</v>
       </c>
       <c r="B180">
-        <v>1.1241325910962301</v>
+        <v>1.12413259559268</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181">
-        <v>0.85809433855369999</v>
+        <v>0.85809433514356004</v>
       </c>
       <c r="B181">
-        <v>1.12413258659978</v>
+        <v>1.1241325910962301</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182">
-        <v>0.85809434196384005</v>
+        <v>0.85809433855369999</v>
       </c>
       <c r="B182">
-        <v>1.1241325821033199</v>
+        <v>1.12413258659978</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183">
-        <v>0.85809434311431299</v>
+        <v>0.85809434196384005</v>
       </c>
       <c r="B183">
-        <v>1.1241325810435201</v>
+        <v>1.1241325821033199</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184">
-        <v>0.85809434274915697</v>
+        <v>0.85809434311431299</v>
       </c>
       <c r="B184">
-        <v>1.12413258228879</v>
+        <v>1.1241325810435201</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185">
-        <v>0.85809434238399995</v>
+        <v>0.85809434274915697</v>
       </c>
       <c r="B185">
-        <v>1.1241325835340501</v>
+        <v>1.12413258228879</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186">
-        <v>0.85809434201884305</v>
+        <v>0.85809434238399995</v>
       </c>
       <c r="B186">
-        <v>1.12413258477932</v>
+        <v>1.1241325835340501</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187">
-        <v>0.85809434165368703</v>
+        <v>0.85809434201884305</v>
       </c>
       <c r="B187">
-        <v>1.1241325860245901</v>
+        <v>1.12413258477932</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188">
-        <v>0.85809434128853002</v>
+        <v>0.85809434165368703</v>
       </c>
       <c r="B188">
-        <v>1.12413258726985</v>
+        <v>1.1241325860245901</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189">
-        <v>0.858094340923373</v>
+        <v>0.85809434128853002</v>
       </c>
       <c r="B189">
-        <v>1.1241325885151201</v>
+        <v>1.12413258726985</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190">
-        <v>0.85809434055821698</v>
+        <v>0.858094340923373</v>
       </c>
       <c r="B190">
-        <v>1.12413258976038</v>
+        <v>1.1241325885151201</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191">
-        <v>0.85809434019305997</v>
+        <v>0.85809434055821698</v>
       </c>
       <c r="B191">
-        <v>1.1241325910056501</v>
+        <v>1.12413258976038</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192">
-        <v>0.85809433982790295</v>
+        <v>0.85809434019305997</v>
       </c>
       <c r="B192">
-        <v>1.12413259225091</v>
+        <v>1.1241325910056501</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193">
-        <v>0.85809433946274705</v>
+        <v>0.85809433982790295</v>
       </c>
       <c r="B193">
-        <v>1.1241325934961801</v>
+        <v>1.12413259225091</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194">
-        <v>0.85809433909759003</v>
+        <v>0.85809433946274705</v>
       </c>
       <c r="B194">
-        <v>1.12413259474145</v>
+        <v>1.1241325934961801</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195">
-        <v>0.85809433873243401</v>
+        <v>0.85809433909759003</v>
       </c>
       <c r="B195">
-        <v>1.1241325959867099</v>
+        <v>1.12413259474145</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196">
-        <v>0.858094338367277</v>
+        <v>0.85809433873243401</v>
       </c>
       <c r="B196">
-        <v>1.12413259723198</v>
+        <v>1.1241325959867099</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197">
-        <v>0.85809433800211998</v>
+        <v>0.858094338367277</v>
       </c>
       <c r="B197">
-        <v>1.1241325984772399</v>
+        <v>1.12413259723198</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198">
-        <v>0.85809433763696297</v>
+        <v>0.85809433800211998</v>
       </c>
       <c r="B198">
-        <v>1.12413259972251</v>
+        <v>1.1241325984772399</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199">
-        <v>0.85809433727180695</v>
+        <v>0.85809433763696297</v>
       </c>
       <c r="B199">
-        <v>1.1241326009677799</v>
+        <v>1.12413259972251</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200">
-        <v>0.85809433690665005</v>
+        <v>0.85809433727180695</v>
       </c>
       <c r="B200">
-        <v>1.12413260221304</v>
+        <v>1.1241326009677799</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201">
+        <v>0.85809433690665005</v>
+      </c>
+      <c r="B201">
+        <v>1.12413260221304</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A202">
         <v>0.85809433654149403</v>
       </c>
-      <c r="B201">
+      <c r="B202">
         <v>1.1241326034583099</v>
       </c>
     </row>
@@ -1965,4 +1987,100 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39BB6F07-E782-4D02-9100-B077D94D50B3}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>0.958594050436959</v>
+      </c>
+      <c r="B3">
+        <v>1.03975858457155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>0.88990435814350499</v>
+      </c>
+      <c r="B4">
+        <v>1.0991168233359601</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>0.86491880042792102</v>
+      </c>
+      <c r="B5">
+        <v>1.1188857265521399</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>0.85893120014376501</v>
+      </c>
+      <c r="B6">
+        <v>1.12349266093304</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>0.85813850527087299</v>
+      </c>
+      <c r="B7">
+        <v>1.1240988576166999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>0.85809877415408498</v>
+      </c>
+      <c r="B8">
+        <v>1.1241292156007701</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>0.85809504532199399</v>
+      </c>
+      <c r="B9">
+        <v>1.12413206216576</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>0.85809444478432695</v>
+      </c>
+      <c r="B10">
+        <v>1.12413252058205</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/instances/dae_test.xlsx
+++ b/instances/dae_test.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/caf4ccef320e202d/★★★科研/Solverz/Solverz/instances/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="11_AD4DA82427541F7ACA7EB8A9580A294E6AE8DE12" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6591D0CA-23BE-4D59-9488-78575375B1B5}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="11_AD4DA82427541F7ACA7EB8A9580A294E6AE8DE12" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{27B44FC6-4F82-4E0A-A452-A1DF82273E53}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="trapezoidal" sheetId="1" r:id="rId1"/>
     <sheet name="rodas" sheetId="2" r:id="rId2"/>
+    <sheet name="rodas_dense" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="2">
   <si>
     <t>x</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1993,7 +1994,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39BB6F07-E782-4D02-9100-B077D94D50B3}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -2083,4 +2084,1636 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F2D9002-21C6-482E-905B-187A60ED201E}">
+  <dimension ref="A1:B202"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>0.958594050436958</v>
+      </c>
+      <c r="B3">
+        <v>1.03975858457155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>0.93004477845703304</v>
+      </c>
+      <c r="B4">
+        <v>1.0657479327030801</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>0.90991779219163904</v>
+      </c>
+      <c r="B5">
+        <v>1.0825311994923701</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>0.89583375738197601</v>
+      </c>
+      <c r="B6">
+        <v>1.0938978694488299</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>0.885624785982987</v>
+      </c>
+      <c r="B7">
+        <v>1.1026142321130801</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>0.87814149152416998</v>
+      </c>
+      <c r="B8">
+        <v>1.1086106414727701</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>0.87273044760527096</v>
+      </c>
+      <c r="B9">
+        <v>1.1128240817336501</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>0.86888150911943995</v>
+      </c>
+      <c r="B10">
+        <v>1.1157614615378799</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>0.86608453095982396</v>
+      </c>
+      <c r="B11">
+        <v>1.1179296895276001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>0.86395339494812595</v>
+      </c>
+      <c r="B12">
+        <v>1.1196382645171601</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>0.86237787347490702</v>
+      </c>
+      <c r="B13">
+        <v>1.12085908722264</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>0.86121459782890297</v>
+      </c>
+      <c r="B14">
+        <v>1.12175204613433</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>0.86038297835435795</v>
+      </c>
+      <c r="B15">
+        <v>1.1223838368751999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>0.85980242539551699</v>
+      </c>
+      <c r="B16">
+        <v>1.1228211550682601</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>0.859392349296625</v>
+      </c>
+      <c r="B17">
+        <v>1.12313069633649</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>0.85907216040192802</v>
+      </c>
+      <c r="B18">
+        <v>1.1233791563028801</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>0.85880872230289496</v>
+      </c>
+      <c r="B19">
+        <v>1.12358676520002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>0.85861699718350004</v>
+      </c>
+      <c r="B20">
+        <v>1.1237338992827799</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>0.85846904040469996</v>
+      </c>
+      <c r="B21">
+        <v>1.1238472225613101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>0.85835897333595301</v>
+      </c>
+      <c r="B22">
+        <v>1.12393130705964</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>0.85828091734671597</v>
+      </c>
+      <c r="B23">
+        <v>1.1239907248018</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>0.85822899380644602</v>
+      </c>
+      <c r="B24">
+        <v>1.12403004781178</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>0.85819732408460003</v>
+      </c>
+      <c r="B25">
+        <v>1.12405384811361</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>0.85818002955063499</v>
+      </c>
+      <c r="B26">
+        <v>1.1240666977313001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>0.85817123157400899</v>
+      </c>
+      <c r="B27">
+        <v>1.1240731686888701</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>0.85816505152417799</v>
+      </c>
+      <c r="B28">
+        <v>1.12407783301034</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>0.85815561077060099</v>
+      </c>
+      <c r="B29">
+        <v>1.12408526271971</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>0.85813785431485301</v>
+      </c>
+      <c r="B30">
+        <v>1.1240993556568</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>0.85812776395034396</v>
+      </c>
+      <c r="B31">
+        <v>1.12410707515494</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>0.85811911321470302</v>
+      </c>
+      <c r="B32">
+        <v>1.1241136922625701</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>0.85811180692389799</v>
+      </c>
+      <c r="B33">
+        <v>1.1241192799161499</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>0.85810574989390198</v>
+      </c>
+      <c r="B34">
+        <v>1.1241239110521599</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>0.858100846940683</v>
+      </c>
+      <c r="B35">
+        <v>1.1241276586070399</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>0.85809700288021196</v>
+      </c>
+      <c r="B36">
+        <v>1.12413059551728</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>0.85809412252846096</v>
+      </c>
+      <c r="B37">
+        <v>1.12413279471934</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>0.85809211070139702</v>
+      </c>
+      <c r="B38">
+        <v>1.1241343291496799</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>0.85809087221499403</v>
+      </c>
+      <c r="B39">
+        <v>1.1241352717447699</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>0.858090311885219</v>
+      </c>
+      <c r="B40">
+        <v>1.1241356954410699</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>0.85809033452804495</v>
+      </c>
+      <c r="B41">
+        <v>1.12413567317504</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>0.85809084495943999</v>
+      </c>
+      <c r="B42">
+        <v>1.1241352778831699</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>0.85809174799537602</v>
+      </c>
+      <c r="B43">
+        <v>1.1241345825019</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>0.85809294845182305</v>
+      </c>
+      <c r="B44">
+        <v>1.1241336599677101</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>0.85809435114474997</v>
+      </c>
+      <c r="B45">
+        <v>1.1241325832170601</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>0.85809586089013001</v>
+      </c>
+      <c r="B46">
+        <v>1.1241314251864101</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>0.85809738250392997</v>
+      </c>
+      <c r="B47">
+        <v>1.1241302588122399</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>0.85809882080212296</v>
+      </c>
+      <c r="B48">
+        <v>1.1241291570310099</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>0.85810008060067799</v>
+      </c>
+      <c r="B49">
+        <v>1.12412819277918</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>0.85810106671556596</v>
+      </c>
+      <c r="B50">
+        <v>1.1241274389932101</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>0.85810168396275599</v>
+      </c>
+      <c r="B51">
+        <v>1.12412696860959</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>0.85810183715821997</v>
+      </c>
+      <c r="B52">
+        <v>1.12412685456476</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>0.85810143111792703</v>
+      </c>
+      <c r="B53">
+        <v>1.1241271697952</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>0.85810037065784905</v>
+      </c>
+      <c r="B54">
+        <v>1.12412798723736</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>0.85809871062837595</v>
+      </c>
+      <c r="B55">
+        <v>1.12412926409699</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>0.85809808452567204</v>
+      </c>
+      <c r="B56">
+        <v>1.1241297420704199</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>0.85809749595407103</v>
+      </c>
+      <c r="B57">
+        <v>1.12413019139181</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>0.85809694400560299</v>
+      </c>
+      <c r="B58">
+        <v>1.12413061275434</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>0.858096427772296</v>
+      </c>
+      <c r="B59">
+        <v>1.1241310068511601</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>0.85809594634617803</v>
+      </c>
+      <c r="B60">
+        <v>1.12413137437546</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>0.85809549881927905</v>
+      </c>
+      <c r="B61">
+        <v>1.1241317160204101</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>0.85809508428362702</v>
+      </c>
+      <c r="B62">
+        <v>1.1241320324791599</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>0.85809470183125003</v>
+      </c>
+      <c r="B63">
+        <v>1.12413232444491</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>0.85809435055417804</v>
+      </c>
+      <c r="B64">
+        <v>1.1241325926108101</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>0.85809402954443903</v>
+      </c>
+      <c r="B65">
+        <v>1.1241328376700299</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>0.85809373789406096</v>
+      </c>
+      <c r="B66">
+        <v>1.12413306031576</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>0.85809347469507302</v>
+      </c>
+      <c r="B67">
+        <v>1.1241332612411501</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>0.85809323903950396</v>
+      </c>
+      <c r="B68">
+        <v>1.12413344113938</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>0.85809303001938297</v>
+      </c>
+      <c r="B69">
+        <v>1.12413360070361</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>0.85809284672673802</v>
+      </c>
+      <c r="B70">
+        <v>1.12413374062703</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>0.85809268825359797</v>
+      </c>
+      <c r="B71">
+        <v>1.1241338616027901</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>0.858092553691991</v>
+      </c>
+      <c r="B72">
+        <v>1.12413396432408</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>0.85809244213394598</v>
+      </c>
+      <c r="B73">
+        <v>1.1241340494840599</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>0.85809235267149297</v>
+      </c>
+      <c r="B74">
+        <v>1.1241341177758899</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>0.85809228439665797</v>
+      </c>
+      <c r="B75">
+        <v>1.12413416989276</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>0.85809223640147203</v>
+      </c>
+      <c r="B76">
+        <v>1.1241342065278299</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>0.85809220777796302</v>
+      </c>
+      <c r="B77">
+        <v>1.1241342283742799</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>0.85809219761815902</v>
+      </c>
+      <c r="B78">
+        <v>1.12413423612527</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>0.858092205014089</v>
+      </c>
+      <c r="B79">
+        <v>1.1241342304739701</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>0.85809222905778204</v>
+      </c>
+      <c r="B80">
+        <v>1.12413421211356</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>0.85809226884126699</v>
+      </c>
+      <c r="B81">
+        <v>1.1241341817371999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>0.85809232345657105</v>
+      </c>
+      <c r="B82">
+        <v>1.12413414003807</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>0.85809239199572396</v>
+      </c>
+      <c r="B83">
+        <v>1.12413408770933</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>0.85809247355075502</v>
+      </c>
+      <c r="B84">
+        <v>1.1241340254441601</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>0.85809256721369098</v>
+      </c>
+      <c r="B85">
+        <v>1.12413395393573</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>0.85809267207656303</v>
+      </c>
+      <c r="B86">
+        <v>1.12413387387721</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>0.85809278723139704</v>
+      </c>
+      <c r="B87">
+        <v>1.1241337859617599</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>0.85809291177022395</v>
+      </c>
+      <c r="B88">
+        <v>1.1241336908825701</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>0.85809304478507098</v>
+      </c>
+      <c r="B89">
+        <v>1.12413358933279</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>0.85809318536796697</v>
+      </c>
+      <c r="B90">
+        <v>1.1241334820055999</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>0.85809333261094201</v>
+      </c>
+      <c r="B91">
+        <v>1.12413336959418</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>0.85809348560602305</v>
+      </c>
+      <c r="B92">
+        <v>1.1241332527916801</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>0.85809364344523997</v>
+      </c>
+      <c r="B93">
+        <v>1.12413313229129</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>0.85809380522061995</v>
+      </c>
+      <c r="B94">
+        <v>1.1241330087861701</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>0.85809397002419296</v>
+      </c>
+      <c r="B95">
+        <v>1.1241328829694901</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>0.85809413694798697</v>
+      </c>
+      <c r="B96">
+        <v>1.12413275553443</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>0.85809430508403095</v>
+      </c>
+      <c r="B97">
+        <v>1.1241326271741501</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>0.85809447352435397</v>
+      </c>
+      <c r="B98">
+        <v>1.12413249858183</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>0.85809464136098401</v>
+      </c>
+      <c r="B99">
+        <v>1.1241323704506301</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>0.85809480768594903</v>
+      </c>
+      <c r="B100">
+        <v>1.12413224347372</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>0.85809497159128001</v>
+      </c>
+      <c r="B101">
+        <v>1.1241321183442801</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>0.85809513216900302</v>
+      </c>
+      <c r="B102">
+        <v>1.1241319957554801</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>0.85809528851114802</v>
+      </c>
+      <c r="B103">
+        <v>1.1241318764004899</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>0.858095439709744</v>
+      </c>
+      <c r="B104">
+        <v>1.1241317609724699</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>0.85809558485681903</v>
+      </c>
+      <c r="B105">
+        <v>1.1241316501645999</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>0.85809572304440196</v>
+      </c>
+      <c r="B106">
+        <v>1.1241315446700499</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>0.85809585336452099</v>
+      </c>
+      <c r="B107">
+        <v>1.1241314451819899</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>0.85809597490920497</v>
+      </c>
+      <c r="B108">
+        <v>1.1241313523935901</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>0.85809608677048299</v>
+      </c>
+      <c r="B109">
+        <v>1.1241312669980299</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>0.85809618804038401</v>
+      </c>
+      <c r="B110">
+        <v>1.12413118968846</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>0.858096277810935</v>
+      </c>
+      <c r="B111">
+        <v>1.12413112115806</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>0.85809635517416605</v>
+      </c>
+      <c r="B112">
+        <v>1.12413106210001</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>0.858096419222106</v>
+      </c>
+      <c r="B113">
+        <v>1.12413101320747</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>0.85809646904678305</v>
+      </c>
+      <c r="B114">
+        <v>1.1241309751736099</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>0.85809650374022495</v>
+      </c>
+      <c r="B115">
+        <v>1.12413094869161</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>0.85809652239446199</v>
+      </c>
+      <c r="B116">
+        <v>1.12413093445463</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>0.85809652410152204</v>
+      </c>
+      <c r="B117">
+        <v>1.12413093315584</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>0.85809650795343295</v>
+      </c>
+      <c r="B118">
+        <v>1.1241309454884301</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>0.85809647304222503</v>
+      </c>
+      <c r="B119">
+        <v>1.1241309721455399</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>0.85809641845992601</v>
+      </c>
+      <c r="B120">
+        <v>1.12413101382037</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>0.85809634329856499</v>
+      </c>
+      <c r="B121">
+        <v>1.1241310712060699</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>0.85809624665016904</v>
+      </c>
+      <c r="B122">
+        <v>1.12413114499582</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>0.85809612760676901</v>
+      </c>
+      <c r="B123">
+        <v>1.12413123588279</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>0.85809598526039199</v>
+      </c>
+      <c r="B124">
+        <v>1.12413134456015</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>0.85809581870306795</v>
+      </c>
+      <c r="B125">
+        <v>1.12413147172106</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>0.85809562702682396</v>
+      </c>
+      <c r="B126">
+        <v>1.12413161805871</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>0.85809540932368999</v>
+      </c>
+      <c r="B127">
+        <v>1.1241317842662599</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>0.85809516468569502</v>
+      </c>
+      <c r="B128">
+        <v>1.12413197103687</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>0.85809498886511204</v>
+      </c>
+      <c r="B129">
+        <v>1.1241321052618301</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>0.85809489077267198</v>
+      </c>
+      <c r="B130">
+        <v>1.12413218014019</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>0.85809479865883098</v>
+      </c>
+      <c r="B131">
+        <v>1.1241322504548099</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>0.85809471237735502</v>
+      </c>
+      <c r="B132">
+        <v>1.12413231631732</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>0.85809463178201195</v>
+      </c>
+      <c r="B133">
+        <v>1.1241323778393399</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>0.85809455672656898</v>
+      </c>
+      <c r="B134">
+        <v>1.1241324351325099</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>0.85809448706479297</v>
+      </c>
+      <c r="B135">
+        <v>1.12413248830844</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>0.85809442265045199</v>
+      </c>
+      <c r="B136">
+        <v>1.1241325374787601</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>0.85809436333731404</v>
+      </c>
+      <c r="B137">
+        <v>1.1241325827551001</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>0.85809430897914396</v>
+      </c>
+      <c r="B138">
+        <v>1.1241326242490799</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>0.85809425942971096</v>
+      </c>
+      <c r="B139">
+        <v>1.12413266207234</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>0.85809421454278201</v>
+      </c>
+      <c r="B140">
+        <v>1.1241326963364899</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>0.85809417417212397</v>
+      </c>
+      <c r="B141">
+        <v>1.12413272715317</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>0.85809413817150504</v>
+      </c>
+      <c r="B142">
+        <v>1.1241327546340001</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>0.85809410639469197</v>
+      </c>
+      <c r="B143">
+        <v>1.1241327788905999</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>0.85809407869545196</v>
+      </c>
+      <c r="B144">
+        <v>1.12413280003461</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>0.85809405492755197</v>
+      </c>
+      <c r="B145">
+        <v>1.12413281817764</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>0.85809403494476</v>
+      </c>
+      <c r="B146">
+        <v>1.1241328334313301</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>0.858094018600843</v>
+      </c>
+      <c r="B147">
+        <v>1.1241328459072999</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>0.85809400574956796</v>
+      </c>
+      <c r="B148">
+        <v>1.1241328557171799</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>0.85809399624470295</v>
+      </c>
+      <c r="B149">
+        <v>1.12413286297259</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>0.85809398994001496</v>
+      </c>
+      <c r="B150">
+        <v>1.1241328677851601</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>0.85809398668927195</v>
+      </c>
+      <c r="B151">
+        <v>1.1241328702665201</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>0.85809398634623901</v>
+      </c>
+      <c r="B152">
+        <v>1.12413287052829</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>0.85809398876468601</v>
+      </c>
+      <c r="B153">
+        <v>1.1241328686820899</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>0.85809399379837903</v>
+      </c>
+      <c r="B154">
+        <v>1.1241328648395701</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>0.85809400130108604</v>
+      </c>
+      <c r="B155">
+        <v>1.1241328591123301</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>0.85809401112657302</v>
+      </c>
+      <c r="B156">
+        <v>1.1241328516120099</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>0.85809402312860805</v>
+      </c>
+      <c r="B157">
+        <v>1.1241328424502299</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>0.858094037160959</v>
+      </c>
+      <c r="B158">
+        <v>1.1241328317386301</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>0.85809405307739195</v>
+      </c>
+      <c r="B159">
+        <v>1.1241328195888101</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>0.85809407073167598</v>
+      </c>
+      <c r="B160">
+        <v>1.1241328061124201</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>0.85809408997757697</v>
+      </c>
+      <c r="B161">
+        <v>1.1241327914210799</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>0.85809411066886199</v>
+      </c>
+      <c r="B162">
+        <v>1.1241327756264199</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>0.85809413265930001</v>
+      </c>
+      <c r="B163">
+        <v>1.12413275884005</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>0.85809415580265602</v>
+      </c>
+      <c r="B164">
+        <v>1.12413274117361</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>0.85809417995269899</v>
+      </c>
+      <c r="B165">
+        <v>1.1241327227387301</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>0.85809420496319599</v>
+      </c>
+      <c r="B166">
+        <v>1.1241327036470199</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>0.85809423068791402</v>
+      </c>
+      <c r="B167">
+        <v>1.12413268401012</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>0.85809425698062103</v>
+      </c>
+      <c r="B168">
+        <v>1.1241326639396501</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>0.858094283695083</v>
+      </c>
+      <c r="B169">
+        <v>1.1241326435472401</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>0.85809431068506903</v>
+      </c>
+      <c r="B170">
+        <v>1.1241326229445201</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>0.85809433780434397</v>
+      </c>
+      <c r="B171">
+        <v>1.1241326022431</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>0.85809436490667801</v>
+      </c>
+      <c r="B172">
+        <v>1.1241325815546299</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>0.85809439184583602</v>
+      </c>
+      <c r="B173">
+        <v>1.12413256099071</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>0.85809441847558698</v>
+      </c>
+      <c r="B174">
+        <v>1.1241325406629901</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>0.85809444464969697</v>
+      </c>
+      <c r="B175">
+        <v>1.1241325206830799</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>0.85809447022193397</v>
+      </c>
+      <c r="B176">
+        <v>1.12413250116261</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>0.85809449504606605</v>
+      </c>
+      <c r="B177">
+        <v>1.1241324822132099</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>0.85809451897585798</v>
+      </c>
+      <c r="B178">
+        <v>1.1241324639465</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>0.85809454186508005</v>
+      </c>
+      <c r="B179">
+        <v>1.12413244647412</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>0.85809456356749803</v>
+      </c>
+      <c r="B180">
+        <v>1.12413242990768</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>0.85809458393687899</v>
+      </c>
+      <c r="B181">
+        <v>1.1241324143588101</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>0.85809460282699102</v>
+      </c>
+      <c r="B182">
+        <v>1.1241323999391499</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>0.85809462009160098</v>
+      </c>
+      <c r="B183">
+        <v>1.1241323867602999</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>0.85809463558447596</v>
+      </c>
+      <c r="B184">
+        <v>1.1241323749339101</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>0.85809464915938405</v>
+      </c>
+      <c r="B185">
+        <v>1.1241323645715999</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>0.85809466067009099</v>
+      </c>
+      <c r="B186">
+        <v>1.124132355785</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>0.85809466997036599</v>
+      </c>
+      <c r="B187">
+        <v>1.12413234868572</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>0.85809467691397601</v>
+      </c>
+      <c r="B188">
+        <v>1.1241323433854</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>0.85809468135468703</v>
+      </c>
+      <c r="B189">
+        <v>1.12413233999566</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>0.85809468314626802</v>
+      </c>
+      <c r="B190">
+        <v>1.1241323386281299</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>0.85809468214248497</v>
+      </c>
+      <c r="B191">
+        <v>1.12413233939444</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>0.85809467819710605</v>
+      </c>
+      <c r="B192">
+        <v>1.12413234240621</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>0.85809467116389704</v>
+      </c>
+      <c r="B193">
+        <v>1.12413234777506</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>0.858094660896628</v>
+      </c>
+      <c r="B194">
+        <v>1.1241323556126299</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>0.85809464724906304</v>
+      </c>
+      <c r="B195">
+        <v>1.12413236603054</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>0.858094630074972</v>
+      </c>
+      <c r="B196">
+        <v>1.1241323791404201</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>0.85809460922812097</v>
+      </c>
+      <c r="B197">
+        <v>1.12413239505389</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>0.85809458456227805</v>
+      </c>
+      <c r="B198">
+        <v>1.1241324138825799</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A199">
+        <v>0.85809455593120998</v>
+      </c>
+      <c r="B199">
+        <v>1.1241324357381099</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A200">
+        <v>0.85809452318868296</v>
+      </c>
+      <c r="B200">
+        <v>1.1241324607321199</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <v>0.85809448618846695</v>
+      </c>
+      <c r="B201">
+        <v>1.1241324889762201</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A202">
+        <v>0.85809444478432695</v>
+      </c>
+      <c r="B202">
+        <v>1.12413252058205</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>